--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_ondrikov_student_tue_nl/Documents/Q4/DBL HTI + Webtech (2IOA0)/Scrum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{A116AF9F-60E8-422C-B011-ED19BE602E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{648B4004-F740-4F46-A212-24E12E5139ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88FE28-B21F-4A62-B829-A4A37472CE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -318,13 +318,13 @@
     <t>Bas Gerritsen</t>
   </si>
   <si>
-    <t>Jay Benidicto</t>
-  </si>
-  <si>
     <t>Lyuben Petrov</t>
   </si>
   <si>
     <t>Nours Naama</t>
+  </si>
+  <si>
+    <t>Jay Benedicto</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
                   <c:v>Bas Gerritsen</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Jay Benidicto</c:v>
+                  <c:v>Jay Benedicto</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Lyuben Petrov</c:v>
@@ -746,7 +746,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -889,7 +889,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9444444444444445E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1834,8 +1834,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G8" s="29">
         <v>5.833333333333333</v>
@@ -1965,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="29">
         <v>5.833333333333333</v>
@@ -1985,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="29">
         <v>5.833333333333333</v>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>0</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>0</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>0</v>
+        <v>11.666666666666668</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>0</v>
+        <v>1.0416666666666667</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D32" s="17">
         <f>Student2!D26</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E32" s="17">
         <f>Student2!E26</f>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="M32" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3496,7 +3496,7 @@
     <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <f>INDEX(Participants,4,2)</f>
-        <v>Jay Benidicto</v>
+        <v>Jay Benedicto</v>
       </c>
       <c r="C34" s="17">
         <f>Student4!C26</f>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3803,8 +3803,8 @@
   </sheetPr>
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3818,8 +3818,8 @@
         <v>30</v>
       </c>
       <c r="B2" t="str">
-        <f>INDEX(Participants,2,2)</f>
-        <v>Tessa van Beers</v>
+        <f>INDEX(Participants,1,2)</f>
+        <v>Frederik Ondrikov</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4395,8 +4395,8 @@
         <v>30</v>
       </c>
       <c r="B2" t="str">
-        <f>INDEX(Participants,3,2)</f>
-        <v>Bas Gerritsen</v>
+        <f>INDEX(Participants,2,2)</f>
+        <v>Tessa van Beers</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4455,7 +4455,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -4471,7 +4473,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -4541,7 +4545,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
@@ -4776,7 +4780,7 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -4833,39 +4837,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4878,39 +4882,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$6-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$6-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$6-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$6-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$6-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$6-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$6-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$6-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$6-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4956,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4972,8 +4976,8 @@
         <v>30</v>
       </c>
       <c r="B2" t="str">
-        <f>INDEX(Participants,1,2)</f>
-        <v>Frederik Ondrikov</v>
+        <f>INDEX(Participants,3,2)</f>
+        <v>Bas Gerritsen</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5535,7 +5539,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5550,7 +5554,7 @@
       </c>
       <c r="B2" s="11" t="str">
         <f>INDEX(Participants,4,2)</f>
-        <v>Jay Benidicto</v>
+        <v>Jay Benedicto</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181751\OneDrive - TU Eindhoven\Documents\GitHub\DBLVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20183477\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88FE28-B21F-4A62-B829-A4A37472CE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D827B4-7075-4250-9076-B886361C4DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -889,7 +889,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2916666666666669E-2</c:v>
+                  <c:v>4.5833333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.9444444444444445E-2</c:v>
+                  <c:v>3.888888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.472222222222222E-3</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>1.9444444444444445E-2</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>1.9444444444444445E-2</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>11.666666666666668</v>
+        <v>23.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>3.472222222222222E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>1.0416666666666667</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="D34" s="17">
         <f>Student4!D26</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E34" s="17">
         <f>Student4!E26</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M34" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>2.2916666666666669E-2</v>
+        <v>4.5833333333333337E-2</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
+        <v>4.5833333333333337E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5538,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5613,7 +5613,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -5629,7 +5631,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -5934,7 +5938,7 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -5991,39 +5995,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -6036,39 +6040,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$8-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$8-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$8-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$8-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$8-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$8-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$8-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$8-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$8-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20183477\Documents\GitHub\DBLVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_petrov_student_tue_nl/Documents/DBLVis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D827B4-7075-4250-9076-B886361C4DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2EACCFC8-C5F4-4066-BDC4-D7FC4EE51E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
                   <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -889,7 +889,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5833333333333337E-2</c:v>
+                  <c:v>6.8750000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.888888888888889E-2</c:v>
+                  <c:v>5.8333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>3.888888888888889E-2</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>3.888888888888889E-2</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>23.333333333333336</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>2.0833333333333335</v>
+        <v>3.1249999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="D35" s="17">
         <f>Student5!D26</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E35" s="17">
         <f>Student5!E26</f>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M35" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>4.5833333333333337E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>4.5833333333333337E-2</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5538,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6118,8 +6118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6193,7 +6193,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -6209,7 +6211,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -6514,7 +6518,7 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
@@ -6571,39 +6575,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -6616,39 +6620,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$9-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$9-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$9-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$9-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$9-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$9-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$9-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$9-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$9-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.8104166666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_petrov_student_tue_nl/Documents/DBLVis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173771\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2EACCFC8-C5F4-4066-BDC4-D7FC4EE51E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BA0B23-8F84-45CD-9888-811F6821057A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -288,12 +288,6 @@
     <t>Sprint Tasks</t>
   </si>
   <si>
-    <t>Sprint Task 1.x: Develop Code part</t>
-  </si>
-  <si>
-    <t>Sprint Task 2.x: Develop Report part</t>
-  </si>
-  <si>
     <t>Sprint Task 4.x</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>Jay Benedicto</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.1: research javascript, libraries, etc.</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.1: look into data retrieval</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,7 +668,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -758,7 +758,7 @@
                   <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.11666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -851,7 +851,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -886,10 +886,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8750000000000006E-2</c:v>
+                  <c:v>0.14374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -990,7 +990,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1213,10 +1213,10 @@
                   <c:v>Sprint Tasks</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sprint Task 1.x: Develop Code part</c:v>
+                  <c:v>Sprint Task 1.1: research javascript, libraries, etc.</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Sprint Task 2.x: Develop Report part</c:v>
+                  <c:v>Sprint Task 1.1: look into data retrieval</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sprint Task 3.x: </c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.8333333333333334E-2</c:v>
+                  <c:v>7.7777777777777779E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0416666666666666E-2</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1276,16 +1276,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="29">
         <v>5.833333333333333</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="29">
         <v>5.833333333333333</v>
@@ -1925,7 +1925,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="29">
         <v>5.833333333333333</v>
@@ -1945,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="29">
         <v>5.833333333333333</v>
@@ -1965,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="29">
         <v>5.833333333333333</v>
@@ -1985,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="29">
         <v>5.833333333333333</v>
@@ -1996,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C11" s="28"/>
       <c r="E11" s="15" t="s">
@@ -2012,7 +2012,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C12" s="28"/>
       <c r="E12" s="15" t="s">
@@ -2028,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="28"/>
       <c r="F13" s="12" t="s">
@@ -2044,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="28"/>
     </row>
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="28"/>
     </row>
@@ -2062,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="28"/>
     </row>
@@ -2071,7 +2071,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="28"/>
     </row>
@@ -2080,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="28"/>
     </row>
@@ -2089,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="28"/>
     </row>
@@ -2098,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="28"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="28"/>
     </row>
@@ -2116,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="28"/>
     </row>
@@ -2125,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="28"/>
     </row>
@@ -2134,7 +2134,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="28"/>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>5.8333333333333334E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>5.8333333333333334E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>35</v>
+        <v>46.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>3.1249999999999996</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C10" s="17">
         <f>SUM(Student3!C10,Student1!C10,Student2!C10,Student4!C10,Student5!C10,Student6!C10,Student7!C10,Student8!C10)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D10" s="17">
         <f>SUM(Student3!D10,Student1!D10,Student2!D10,Student4!D10,Student5!D10,Student6!D10,Student7!D10,Student8!D10)</f>
@@ -2491,11 +2491,11 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N10" s="7">
         <f>IF(INDEX(Tasks,5,3)&lt;&gt;"",100*M10/INDEX(Tasks,5,3),"")</f>
-        <v>0</v>
+        <v>49.999999999999993</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -2555,7 +2555,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17">
         <f>SUM(Student3!C12,Student1!C12,Student2!C12,Student4!C12,Student5!C12,Student6!C12,Student7!C12,Student8!C12)</f>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E12" s="17">
         <f>SUM(Student3!E12,Student1!E12,Student2!E12,Student4!E12,Student5!E12,Student6!E12,Student7!E12,Student8!E12)</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -2609,7 +2609,7 @@
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17">
         <f>SUM(Student3!C13,Student1!C13,Student2!C13,Student4!C13,Student5!C13,Student6!C13,Student7!C13,Student8!C13)</f>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="D13" s="17">
         <f>SUM(Student3!D13,Student1!D13,Student2!D13,Student4!D13,Student5!D13,Student6!D13,Student7!D13,Student8!D13)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E13" s="17">
         <f>SUM(Student3!E13,Student1!E13,Student2!E13,Student4!E13,Student5!E13,Student6!E13,Student7!E13,Student8!E13)</f>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N13" s="7" t="str">
         <f>IF(INDEX(Tasks,8,3)&lt;&gt;"",100*M13/INDEX(Tasks,8,3),"")</f>
@@ -3600,11 +3600,11 @@
       </c>
       <c r="C36" s="17">
         <f>Student6!C26</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D36" s="17">
         <f>Student6!D26</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E36" s="17">
         <f>Student6!E26</f>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="M36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3746,11 +3746,11 @@
     <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.14374999999999999</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.18541666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3803,7 @@
   </sheetPr>
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3971,7 +3971,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3987,7 +3987,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4552,7 +4552,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -4568,7 +4568,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5129,7 +5129,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -5145,7 +5145,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5710,7 +5710,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -5726,7 +5726,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -6118,7 +6118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -6290,7 +6290,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -6306,7 +6306,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -6698,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6773,7 +6773,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -6789,7 +6791,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -6836,7 +6840,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -6866,10 +6872,12 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>3.125E-2</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -6882,10 +6890,12 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -7090,11 +7100,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -7147,43 +7157,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -7192,43 +7202,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$10-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.7916666666666661</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$10-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$10-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$10-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$10-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$10-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$10-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$10-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$10-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$10-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.7166666666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7452,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7458,7 +7468,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -8018,7 +8028,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -8034,7 +8044,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173771\Documents\GitHub\DBLVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BA0B23-8F84-45CD-9888-811F6821057A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17D148-048A-4F44-AB91-564B07440857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="6075" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
                   <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.2729166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.2916666666666669E-2</c:v>
@@ -889,7 +889,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14374999999999999</c:v>
+                  <c:v>0.4166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7.7777777777777779E-2</c:v>
+                  <c:v>9.7222222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1282,7 +1282,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -1838,18 +1838,18 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C14" s="28"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C16" s="28"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C17" s="28"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C22" s="28"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C23" s="28"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C24" s="28"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>54</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
     </row>
   </sheetData>
@@ -2177,20 +2177,20 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,14 +2275,14 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>7.7777777777777779E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>46.666666666666671</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+        <v>58.333333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,14 +2329,14 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>5.2083333333333339</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -2498,7 +2498,7 @@
         <v>49.999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
-        <v>3.125E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="E12" s="17">
         <f>SUM(Student3!E12,Student1!E12,Student2!E12,Student4!E12,Student5!E12,Student6!E12,Student7!E12,Student8!E12)</f>
@@ -2599,14 +2599,14 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -2660,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -2714,7 +2714,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -2821,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -2875,7 +2875,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -2929,7 +2929,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -2983,7 +2983,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -3037,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -3091,7 +3091,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -3145,7 +3145,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -3199,7 +3199,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -3253,7 +3253,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -3307,8 +3307,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f>INDEX(Participants,1,2)</f>
         <v>Frederik Ondrikov</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f>INDEX(Participants,2,2)</f>
         <v>Tessa van Beers</v>
@@ -3443,7 +3443,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
         <f>INDEX(Participants,3,2)</f>
         <v>Bas Gerritsen</v>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="D33" s="17">
         <f>Student3!D26</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E33" s="17">
         <f>Student3!E26</f>
@@ -3490,10 +3490,10 @@
       </c>
       <c r="M33" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.2729166666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
         <f>INDEX(Participants,4,2)</f>
         <v>Jay Benedicto</v>
@@ -3543,7 +3543,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
         <f>INDEX(Participants,5,2)</f>
         <v>Lyuben Petrov</v>
@@ -3593,7 +3593,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
         <f>INDEX(Participants,6,2)</f>
         <v>Nours Naama</v>
@@ -3643,7 +3643,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f>INDEX(Participants,7,2)</f>
         <v>Student7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
         <f>INDEX(Participants,8,2)</f>
         <v>Student8</v>
@@ -3743,14 +3743,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0.14374999999999999</v>
+        <v>0.4166666666666668</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>0.18541666666666665</v>
+        <v>0.45833333333333348</v>
       </c>
     </row>
   </sheetData>
@@ -3807,13 +3807,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>Frederik Ondrikov</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -3888,7 +3888,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -3904,7 +3904,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -3920,7 +3920,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -3936,7 +3936,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -3952,7 +3952,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -3968,7 +3968,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -3984,7 +3984,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -4000,7 +4000,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -4016,7 +4016,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -4032,7 +4032,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -4048,7 +4048,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -4064,7 +4064,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -4080,7 +4080,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -4096,7 +4096,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -4112,7 +4112,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -4128,7 +4128,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -4144,7 +4144,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -4160,7 +4160,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -4176,7 +4176,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -4192,7 +4192,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4246,7 +4246,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4353,7 +4353,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4384,13 +4384,13 @@
       <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>Tessa van Beers</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -4467,7 +4467,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -4485,7 +4485,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -4501,7 +4501,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -4517,7 +4517,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -4533,7 +4533,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -4549,7 +4549,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -4565,7 +4565,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -4581,7 +4581,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -4597,7 +4597,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -4613,7 +4613,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -4629,7 +4629,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -4645,7 +4645,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -4661,7 +4661,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -4677,7 +4677,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -4693,7 +4693,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -4709,7 +4709,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -4725,7 +4725,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -4741,7 +4741,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -4757,7 +4757,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -4773,7 +4773,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4827,7 +4827,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>5.8104166666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4934,7 +4934,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4961,17 +4961,17 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>Bas Gerritsen</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5030,13 +5030,15 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -5046,13 +5048,15 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -5062,7 +5066,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -5078,7 +5082,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -5094,7 +5098,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -5110,7 +5114,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -5126,13 +5130,15 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>0.25</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -5142,7 +5148,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -5158,7 +5164,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -5174,7 +5180,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -5190,7 +5196,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -5206,7 +5212,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -5222,7 +5228,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -5238,7 +5244,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -5254,7 +5260,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -5270,7 +5276,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -5286,7 +5292,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -5302,7 +5308,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -5318,7 +5324,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -5334,7 +5340,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -5350,14 +5356,14 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -5392,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -5404,7 +5410,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -5414,42 +5420,42 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0.2729166666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -5459,42 +5465,42 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$7-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$7-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$7-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$7-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$7-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$7-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$7-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$7-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.5604166666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$7-L28</f>
-        <v>5.833333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+        <v>5.5604166666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -5511,7 +5517,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -5538,17 +5544,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>Jay Benedicto</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5607,7 +5613,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -5625,7 +5631,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -5643,7 +5649,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -5659,7 +5665,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -5675,7 +5681,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -5691,7 +5697,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -5707,7 +5713,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -5723,7 +5729,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -5739,7 +5745,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -5755,7 +5761,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -5771,7 +5777,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -5787,7 +5793,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -5803,7 +5809,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -5819,7 +5825,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -5835,7 +5841,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -5851,7 +5857,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -5867,7 +5873,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -5883,7 +5889,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -5899,7 +5905,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -5915,7 +5921,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -5931,7 +5937,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -5973,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -5985,7 +5991,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>5.8104166666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -6092,7 +6098,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -6122,13 +6128,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>Lyuben Petrov</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -6187,7 +6193,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -6205,7 +6211,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -6223,7 +6229,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -6239,7 +6245,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -6255,7 +6261,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -6271,7 +6277,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -6287,7 +6293,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -6303,7 +6309,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -6319,7 +6325,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -6335,7 +6341,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -6351,7 +6357,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -6367,7 +6373,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -6383,7 +6389,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -6399,7 +6405,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -6415,7 +6421,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -6431,7 +6437,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -6447,7 +6453,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -6463,7 +6469,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -6479,7 +6485,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -6495,7 +6501,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -6511,7 +6517,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="20">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -6553,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -6565,7 +6571,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>5.8104166666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -6672,7 +6678,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -6698,17 +6704,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -6717,7 +6723,7 @@
         <v>Nours Naama</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -6767,7 +6773,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -6785,7 +6791,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -6803,7 +6809,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -6819,7 +6825,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -6835,7 +6841,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -6853,7 +6859,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -6869,7 +6875,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -6887,7 +6893,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -6905,7 +6911,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -6921,7 +6927,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -6937,7 +6943,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -6953,7 +6959,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -6969,7 +6975,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -6985,7 +6991,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -7001,7 +7007,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -7017,7 +7023,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -7033,7 +7039,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -7049,7 +7055,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -7065,7 +7071,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -7081,7 +7087,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -7097,7 +7103,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>4.1666666666666664E-2</v>
@@ -7139,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -7151,7 +7157,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>5.7166666666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -7258,7 +7264,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -7288,13 +7294,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7303,7 +7309,7 @@
         <v>Student7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -7353,7 +7359,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -7369,7 +7375,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -7385,7 +7391,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -7401,7 +7407,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -7417,7 +7423,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -7433,7 +7439,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -7449,7 +7455,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -7465,7 +7471,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -7481,7 +7487,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -7497,7 +7503,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -7513,7 +7519,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -7529,7 +7535,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -7545,7 +7551,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -7561,7 +7567,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -7577,7 +7583,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -7593,7 +7599,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -7609,7 +7615,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -7625,7 +7631,7 @@
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -7641,7 +7647,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -7657,7 +7663,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -7673,7 +7679,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -7715,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -7727,7 +7733,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -7834,7 +7840,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -7864,13 +7870,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>Student8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -7914,7 +7920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -7929,7 +7935,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -7945,7 +7951,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -7961,7 +7967,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -7977,7 +7983,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -7993,7 +7999,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -8009,7 +8015,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -8025,7 +8031,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -8041,7 +8047,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -8057,7 +8063,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -8073,7 +8079,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -8089,7 +8095,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -8105,7 +8111,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -8121,7 +8127,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -8137,7 +8143,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -8153,7 +8159,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -8169,7 +8175,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -8185,7 +8191,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -8201,7 +8207,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -8217,7 +8223,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -8233,7 +8239,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -8249,7 +8255,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -8291,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -8303,7 +8309,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -8393,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -8410,7 +8416,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DBLVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20183477\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE17D148-048A-4F44-AB91-564B07440857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF450C3-D333-459A-A22F-E350B2EEBEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="6075" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,7 +668,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -752,7 +752,7 @@
                   <c:v>0.2729166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2916666666666669E-2</c:v>
+                  <c:v>0.48124999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2916666666666669E-2</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -851,7 +851,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -886,10 +886,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4166666666666668</c:v>
+                  <c:v>0.54166666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -990,7 +990,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1276,13 +1276,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28125</c:v>
+                  <c:v>0.53125</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1835,21 +1835,21 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C14" s="28"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C15" s="28"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C16" s="28"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C17" s="28"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C22" s="28"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C23" s="28"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C24" s="28"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>54</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
     </row>
   </sheetData>
@@ -2177,20 +2177,20 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -2282,7 +2282,7 @@
         <v>58.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -2336,7 +2336,7 @@
         <v>5.2083333333333339</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -2444,18 +2444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
       <c r="C10" s="17">
         <f>SUM(Student3!C10,Student1!C10,Student2!C10,Student4!C10,Student5!C10,Student6!C10,Student7!C10,Student8!C10)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D10" s="17">
         <f>SUM(Student3!D10,Student1!D10,Student2!D10,Student4!D10,Student5!D10,Student6!D10,Student7!D10,Student8!D10)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E10" s="17">
         <f>SUM(Student3!E10,Student1!E10,Student2!E10,Student4!E10,Student5!E10,Student6!E10,Student7!E10,Student8!E10)</f>
@@ -2491,14 +2491,14 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.25</v>
       </c>
       <c r="N10" s="7">
         <f>IF(INDEX(Tasks,5,3)&lt;&gt;"",100*M10/INDEX(Tasks,5,3),"")</f>
-        <v>49.999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -2552,14 +2552,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17">
         <f>SUM(Student3!C12,Student1!C12,Student2!C12,Student4!C12,Student5!C12,Student6!C12,Student7!C12,Student8!C12)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
@@ -2599,14 +2599,14 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0.28125</v>
+        <v>0.53125</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -2660,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -2714,7 +2714,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -2821,7 +2821,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -2875,7 +2875,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -2929,7 +2929,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -2983,7 +2983,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -3037,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -3091,7 +3091,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -3145,7 +3145,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -3199,7 +3199,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -3253,7 +3253,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -3307,8 +3307,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <f>INDEX(Participants,1,2)</f>
         <v>Frederik Ondrikov</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <f>INDEX(Participants,2,2)</f>
         <v>Tessa van Beers</v>
@@ -3443,7 +3443,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
         <f>INDEX(Participants,3,2)</f>
         <v>Bas Gerritsen</v>
@@ -3493,18 +3493,18 @@
         <v>0.2729166666666667</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <f>INDEX(Participants,4,2)</f>
         <v>Jay Benedicto</v>
       </c>
       <c r="C34" s="17">
         <f>Student4!C26</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D34" s="17">
         <f>Student4!D26</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.14791666666666667</v>
       </c>
       <c r="E34" s="17">
         <f>Student4!E26</f>
@@ -3540,10 +3540,10 @@
       </c>
       <c r="M34" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.48124999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
         <f>INDEX(Participants,5,2)</f>
         <v>Lyuben Petrov</v>
@@ -3593,7 +3593,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <f>INDEX(Participants,6,2)</f>
         <v>Nours Naama</v>
@@ -3643,7 +3643,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <f>INDEX(Participants,7,2)</f>
         <v>Student7</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <f>INDEX(Participants,8,2)</f>
         <v>Student8</v>
@@ -3743,14 +3743,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.375</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0.4166666666666668</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>0.45833333333333348</v>
+        <v>0.91666666666666674</v>
       </c>
     </row>
   </sheetData>
@@ -3807,13 +3807,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>Frederik Ondrikov</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -3888,7 +3888,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -3904,7 +3904,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -3920,7 +3920,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -3936,7 +3936,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -3952,7 +3952,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -3968,7 +3968,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -3984,7 +3984,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -4000,7 +4000,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -4016,7 +4016,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -4032,7 +4032,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -4048,7 +4048,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -4064,7 +4064,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -4080,7 +4080,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -4096,7 +4096,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -4112,7 +4112,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -4128,7 +4128,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -4144,7 +4144,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -4160,7 +4160,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -4176,7 +4176,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -4192,7 +4192,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4246,7 +4246,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4353,7 +4353,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4384,13 +4384,13 @@
       <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>Tessa van Beers</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -4467,7 +4467,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -4485,7 +4485,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -4501,7 +4501,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -4517,7 +4517,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -4533,7 +4533,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -4549,7 +4549,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -4565,7 +4565,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -4581,7 +4581,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -4597,7 +4597,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -4613,7 +4613,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -4629,7 +4629,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -4645,7 +4645,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -4661,7 +4661,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -4677,7 +4677,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -4693,7 +4693,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -4709,7 +4709,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -4725,7 +4725,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -4741,7 +4741,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -4757,7 +4757,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -4773,7 +4773,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4827,7 +4827,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>5.8104166666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4934,7 +4934,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4961,17 +4961,17 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>Bas Gerritsen</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -5048,7 +5048,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -5066,7 +5066,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -5082,7 +5082,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -5098,7 +5098,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -5114,7 +5114,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -5130,7 +5130,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -5148,7 +5148,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -5164,7 +5164,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -5180,7 +5180,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -5196,7 +5196,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -5212,7 +5212,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -5228,7 +5228,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -5244,7 +5244,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -5260,7 +5260,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -5276,7 +5276,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -5292,7 +5292,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -5308,7 +5308,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -5324,7 +5324,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -5340,7 +5340,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -5356,7 +5356,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -5410,7 +5410,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>0.2729166666666667</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>5.5604166666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -5517,7 +5517,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -5544,17 +5544,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>Jay Benedicto</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -5631,7 +5631,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -5649,7 +5649,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -5665,7 +5665,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -5681,13 +5681,17 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.125</v>
+      </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -5697,7 +5701,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -5713,12 +5717,14 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17">
+        <v>0.25</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5729,7 +5735,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -5745,7 +5751,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -5761,7 +5767,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -5777,7 +5783,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -5793,7 +5799,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -5809,7 +5815,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -5825,7 +5831,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -5841,7 +5847,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -5857,7 +5863,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -5873,7 +5879,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -5889,7 +5895,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -5905,7 +5911,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -5921,7 +5927,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -5937,14 +5943,14 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.14791666666666667</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -5979,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -5991,97 +5997,97 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>2.2916666666666669E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+        <v>0.48124999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$8-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$8-D28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$8-E28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$8-F28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$8-G28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$8-H28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$8-I28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$8-J28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$8-K28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$8-L28</f>
-        <v>5.8104166666666668</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+        <v>5.3520833333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -6098,7 +6104,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -6124,17 +6130,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>Lyuben Petrov</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -6193,7 +6199,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -6211,7 +6217,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -6229,7 +6235,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -6245,7 +6251,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -6261,7 +6267,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -6277,7 +6283,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -6293,7 +6299,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -6309,7 +6315,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -6325,7 +6331,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -6341,7 +6347,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -6357,7 +6363,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -6373,7 +6379,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -6389,7 +6395,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -6405,7 +6411,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -6421,7 +6427,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -6437,7 +6443,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -6453,7 +6459,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -6469,7 +6475,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -6485,7 +6491,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -6501,7 +6507,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -6517,7 +6523,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="20">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -6559,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -6571,7 +6577,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>5.8104166666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -6678,7 +6684,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -6708,13 +6714,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -6723,7 +6729,7 @@
         <v>Nours Naama</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -6773,7 +6779,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -6791,7 +6797,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -6809,7 +6815,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -6825,7 +6831,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -6841,7 +6847,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -6859,7 +6865,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -6875,7 +6881,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -6893,7 +6899,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -6911,7 +6917,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -6927,7 +6933,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -6943,7 +6949,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -6959,7 +6965,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -6975,7 +6981,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -6991,7 +6997,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -7007,7 +7013,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -7023,7 +7029,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -7039,7 +7045,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -7055,7 +7061,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -7071,7 +7077,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -7087,7 +7093,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -7103,7 +7109,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>4.1666666666666664E-2</v>
@@ -7145,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -7157,7 +7163,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -7202,7 +7208,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>5.7166666666666668</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -7264,7 +7270,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -7294,13 +7300,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>Student7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -7359,7 +7365,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -7375,7 +7381,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -7391,7 +7397,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -7407,7 +7413,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -7423,7 +7429,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -7439,7 +7445,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -7455,7 +7461,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -7471,7 +7477,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -7487,7 +7493,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -7503,7 +7509,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -7519,7 +7525,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -7535,7 +7541,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -7551,7 +7557,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -7567,7 +7573,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -7583,7 +7589,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -7599,7 +7605,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -7615,7 +7621,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -7631,7 +7637,7 @@
       <c r="K22" s="18"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -7647,7 +7653,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -7663,7 +7669,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -7679,7 +7685,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -7721,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -7733,7 +7739,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -7840,7 +7846,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -7870,13 +7876,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -7885,7 +7891,7 @@
         <v>Student8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
@@ -7920,7 +7926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -7935,7 +7941,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
@@ -7951,7 +7957,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
         <f>INDEX(Tasks,2,2)</f>
         <v>Daily Scrum</v>
@@ -7967,7 +7973,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>INDEX(Tasks,3,2)</f>
         <v>Sprint Review</v>
@@ -7983,7 +7989,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>INDEX(Tasks,4,2)</f>
         <v>Sprint Retrospective</v>
@@ -7999,7 +8005,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
@@ -8015,7 +8021,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
@@ -8031,7 +8037,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
@@ -8047,7 +8053,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
         <v>Sprint Task 1.1: look into data retrieval</v>
@@ -8063,7 +8069,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f>INDEX(Tasks,9,2)</f>
         <v xml:space="preserve">Sprint Task 3.x: </v>
@@ -8079,7 +8085,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f>INDEX(Tasks,10,2)</f>
         <v>Sprint Task 4.x</v>
@@ -8095,7 +8101,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f>INDEX(Tasks,11,2)</f>
         <v>Sprint Task 5.x</v>
@@ -8111,7 +8117,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f>INDEX(Tasks,12,2)</f>
         <v>Sprint Task x.x</v>
@@ -8127,7 +8133,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f>INDEX(Tasks,13,2)</f>
         <v>Sprint Task x.x</v>
@@ -8143,7 +8149,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f>INDEX(Tasks,14,2)</f>
         <v>Sprint Task x.x</v>
@@ -8159,7 +8165,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f>INDEX(Tasks,15,2)</f>
         <v>Sprint Task x.x</v>
@@ -8175,7 +8181,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f>INDEX(Tasks,16,2)</f>
         <v>Sprint Task x.x</v>
@@ -8191,7 +8197,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>INDEX(Tasks,17,2)</f>
         <v>Sprint Task x.x</v>
@@ -8207,7 +8213,7 @@
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f>INDEX(Tasks,18,2)</f>
         <v>Sprint Task x.x</v>
@@ -8223,7 +8229,7 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f>INDEX(Tasks,19,2)</f>
         <v>Sprint Task x.x</v>
@@ -8239,7 +8245,7 @@
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f>INDEX(Tasks,20,2)</f>
         <v>Sprint Task x.x</v>
@@ -8255,7 +8261,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
         <v>0</v>
@@ -8297,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -8309,7 +8315,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -8416,7 +8422,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20183477\Documents\GitHub\DBLVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181903\Documents\GitHub\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF450C3-D333-459A-A22F-E350B2EEBEC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{551A2B65-70BC-4194-83B3-82E1585EAB82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -743,13 +743,13 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.43958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2916666666666669E-2</c:v>
+                  <c:v>0.10625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2729166666666667</c:v>
+                  <c:v>0.35625000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.48124999999999996</c:v>
@@ -758,7 +758,7 @@
                   <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11666666666666667</c:v>
+                  <c:v>0.15833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -886,10 +886,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.375</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54166666666666674</c:v>
+                  <c:v>0.7729166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>9.7222222222222224E-2</c:v>
+                  <c:v>0.11666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111112E-2</c:v>
+                  <c:v>2.0833333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1276,13 +1276,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53125</c:v>
+                  <c:v>0.73958333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -2173,7 +2173,7 @@
   </sheetPr>
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>58.333333333333343</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>1.7361111111111112E-2</v>
+        <v>2.0833333333333336E-2</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
+        <v>2.0833333333333336E-2</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>5.2083333333333339</v>
+        <v>6.2500000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C10" s="17">
         <f>SUM(Student3!C10,Student1!C10,Student2!C10,Student4!C10,Student5!C10,Student6!C10,Student7!C10,Student8!C10)</f>
-        <v>0.125</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="D10" s="17">
         <f>SUM(Student3!D10,Student1!D10,Student2!D10,Student4!D10,Student5!D10,Student6!D10,Student7!D10,Student8!D10)</f>
@@ -2491,11 +2491,11 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N10" s="7">
         <f>IF(INDEX(Tasks,5,3)&lt;&gt;"",100*M10/INDEX(Tasks,5,3),"")</f>
-        <v>300</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="C11" s="17">
         <f>SUM(Student3!C11,Student1!C11,Student2!C11,Student4!C11,Student5!C11,Student6!C11,Student7!C11,Student8!C11)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D11" s="17">
         <f>SUM(Student3!D11,Student1!D11,Student2!D11,Student4!D11,Student5!D11,Student6!D11,Student7!D11,Student8!D11)</f>
@@ -2545,11 +2545,11 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="N11" s="7">
         <f>IF(INDEX(Tasks,6,3)&lt;&gt;"",100*M11/INDEX(Tasks,6,3),"")</f>
-        <v>0</v>
+        <v>0.36674816625916867</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
-        <v>0.28125</v>
+        <v>0.48958333333333337</v>
       </c>
       <c r="E12" s="17">
         <f>SUM(Student3!E12,Student1!E12,Student2!E12,Student4!E12,Student5!E12,Student6!E12,Student7!E12,Student8!E12)</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0.53125</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="C31" s="17">
         <f>Student1!C26</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D31" s="17">
         <f>Student1!D26</f>
-        <v>0</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E31" s="17">
         <f>Student1!E26</f>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="M31" s="27">
         <f t="shared" ref="M31:M39" si="1">SUM(C31:L31)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C32" s="17">
         <f>Student2!C26</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D32" s="17">
         <f>Student2!D26</f>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="M32" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C33" s="17">
         <f>Student3!C26</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D33" s="17">
         <f>Student3!D26</f>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M33" s="27">
         <f t="shared" si="1"/>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="C36" s="17">
         <f>Student6!C26</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D36" s="17">
         <f>Student6!D26</f>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="M36" s="27">
         <f t="shared" si="1"/>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3746,11 +3746,11 @@
     <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
-        <v>0.375</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0.54166666666666674</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>0.91666666666666674</v>
+        <v>1.5645833333333332</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3804,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3878,7 +3878,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -3894,7 +3896,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -3941,7 +3945,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3957,7 +3963,9 @@
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>0.125</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -3974,7 +3982,9 @@
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -4195,11 +4205,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -4252,43 +4262,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4297,43 +4307,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$5-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.625</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$5-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$5-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$5-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$5-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$5-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$5-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$5-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$5-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$5-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4391,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4522,7 +4532,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4776,7 +4788,7 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
@@ -4833,43 +4845,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4878,43 +4890,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$6-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$6-D28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$6-E28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$6-F28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$6-G28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$6-H28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$6-I28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$6-J28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$6-K28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$6-L28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4973,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5103,7 +5115,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -5359,7 +5373,7 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
@@ -5416,43 +5430,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.2729166666666667</v>
+        <v>0.35625000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -5461,43 +5475,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$7-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$7-D28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$7-E28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$7-F28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$7-G28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$7-H28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$7-I28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$7-J28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$7-K28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$7-L28</f>
-        <v>5.5604166666666668</v>
+        <v>5.4770833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6711,7 +6725,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6853,7 +6867,7 @@
         <v>Lectures/Plenary meetings</v>
       </c>
       <c r="C10" s="17">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -7112,7 +7126,7 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
@@ -7169,43 +7183,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.11666666666666667</v>
+        <v>0.15833333333333333</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -7214,43 +7228,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$10-C28</f>
-        <v>5.7916666666666661</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$10-D28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$10-E28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$10-F28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$10-G28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$10-H28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$10-I28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$10-J28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$10-K28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$10-L28</f>
-        <v>5.7166666666666668</v>
+        <v>5.6749999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -7872,7 +7886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_petrov_student_tue_nl/Documents/DBLVis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181705\OneDrive - TU Eindhoven\DBLVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2EACCFC8-C5F4-4066-BDC4-D7FC4EE51E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{2EACCFC8-C5F4-4066-BDC4-D7FC4EE51E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{878992C9-7CE6-4CE1-A8B7-8754D6A1C2DC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
                   <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2916666666666669E-2</c:v>
+                  <c:v>0.23125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -889,7 +889,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8750000000000006E-2</c:v>
+                  <c:v>0.27708333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1279,7 +1279,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D11" s="17">
         <f>SUM(Student3!D11,Student1!D11,Student2!D11,Student4!D11,Student5!D11,Student6!D11,Student7!D11,Student8!D11)</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E11" s="17">
         <f>SUM(Student3!E11,Student1!E11,Student2!E11,Student4!E11,Student5!E11,Student6!E11,Student7!E11,Student8!E11)</f>
@@ -2545,11 +2545,11 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="N11" s="7">
         <f>IF(INDEX(Tasks,6,3)&lt;&gt;"",100*M11/INDEX(Tasks,6,3),"")</f>
-        <v>0</v>
+        <v>0.61124694376528121</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="D35" s="17">
         <f>Student5!D26</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E35" s="17">
         <f>Student5!E26</f>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M35" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.27708333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +6119,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6277,7 +6277,9 @@
         <v>Sprint Tasks</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -6518,7 +6520,7 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
@@ -6575,39 +6577,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -6620,39 +6622,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$9-D28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$9-E28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$9-F28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$9-G28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$9-H28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$9-I28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$9-J28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$9-K28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$9-L28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181705\OneDrive - TU Eindhoven\DBLVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_ondrikov_student_tue_nl/Documents/Q4/DBL HTI + Webtech (2IOA0)/Scrum/Week 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{2EACCFC8-C5F4-4066-BDC4-D7FC4EE51E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{878992C9-7CE6-4CE1-A8B7-8754D6A1C2DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCCE2B4-3AEB-476D-96C8-10181D2AB981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20904" windowHeight="6072" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -288,12 +288,6 @@
     <t>Sprint Tasks</t>
   </si>
   <si>
-    <t>Sprint Task 1.x: Develop Code part</t>
-  </si>
-  <si>
-    <t>Sprint Task 2.x: Develop Report part</t>
-  </si>
-  <si>
     <t>Sprint Task 4.x</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>Jay Benedicto</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.1: research javascript, libraries, etc.</t>
+  </si>
+  <si>
+    <t>Sprint Task 1.1: look into data retrieval</t>
   </si>
 </sst>
 </file>
@@ -743,22 +743,22 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.43958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.10625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.2916666666666669E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2916666666666669E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23125000000000001</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.15833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -886,10 +886,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27708333333333335</c:v>
+                  <c:v>0.7729166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1213,10 +1213,10 @@
                   <c:v>Sprint Tasks</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Sprint Task 1.x: Develop Code part</c:v>
+                  <c:v>Sprint Task 1.1: research javascript, libraries, etc.</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Sprint Task 2.x: Develop Report part</c:v>
+                  <c:v>Sprint Task 1.1: look into data retrieval</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Sprint Task 3.x: </c:v>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.8333333333333334E-2</c:v>
+                  <c:v>0.11666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0416666666666666E-2</c:v>
+                  <c:v>2.0833333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1276,16 +1276,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.73958333333333337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="29">
         <v>5.833333333333333</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="29">
         <v>5.833333333333333</v>
@@ -1925,7 +1925,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="29">
         <v>5.833333333333333</v>
@@ -1945,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="29">
         <v>5.833333333333333</v>
@@ -1965,7 +1965,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="29">
         <v>5.833333333333333</v>
@@ -1985,7 +1985,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="29">
         <v>5.833333333333333</v>
@@ -1996,7 +1996,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C11" s="28"/>
       <c r="E11" s="15" t="s">
@@ -2012,7 +2012,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C12" s="28"/>
       <c r="E12" s="15" t="s">
@@ -2028,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="28"/>
       <c r="F13" s="12" t="s">
@@ -2044,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="28"/>
     </row>
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="28"/>
     </row>
@@ -2062,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="28"/>
     </row>
@@ -2071,7 +2071,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="28"/>
     </row>
@@ -2080,7 +2080,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="28"/>
     </row>
@@ -2089,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="28"/>
     </row>
@@ -2098,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="28"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="28"/>
     </row>
@@ -2116,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="28"/>
     </row>
@@ -2125,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="28"/>
     </row>
@@ -2134,7 +2134,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="28"/>
     </row>
@@ -2173,7 +2173,7 @@
   </sheetPr>
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D6" s="23">
         <f>SUM(Student3!D6,Student1!D6,Student2!D6,Student4!D6,Student5!D6,Student6!D6,Student7!D6,Student8!D6)</f>
-        <v>5.8333333333333334E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="E6" s="23">
         <f>SUM(Student3!E6,Student1!E6,Student2!E6,Student4!E6,Student5!E6,Student6!E6,Student7!E6,Student8!E6)</f>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="M6" s="24">
         <f t="shared" ref="M6:M25" si="0">SUM(C6:L6)</f>
-        <v>5.8333333333333334E-2</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="N6" s="7">
         <f>IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D7" s="17">
         <f>SUM(Student3!D7,Student1!D7,Student2!D7,Student4!D7,Student5!D7,Student6!D7,Student7!D7,Student8!D7)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333336E-2</v>
       </c>
       <c r="E7" s="17">
         <f>SUM(Student3!E7,Student1!E7,Student2!E7,Student4!E7,Student5!E7,Student6!E7,Student7!E7,Student8!E7)</f>
@@ -2329,11 +2329,11 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333336E-2</v>
       </c>
       <c r="N7" s="7">
         <f>IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M7/INDEX(Tasks,2,3),"")</f>
-        <v>3.1249999999999996</v>
+        <v>6.2500000000000009</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -2451,11 +2451,11 @@
       </c>
       <c r="C10" s="17">
         <f>SUM(Student3!C10,Student1!C10,Student2!C10,Student4!C10,Student5!C10,Student6!C10,Student7!C10,Student8!C10)</f>
-        <v>0</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="D10" s="17">
         <f>SUM(Student3!D10,Student1!D10,Student2!D10,Student4!D10,Student5!D10,Student6!D10,Student7!D10,Student8!D10)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E10" s="17">
         <f>SUM(Student3!E10,Student1!E10,Student2!E10,Student4!E10,Student5!E10,Student6!E10,Student7!E10,Student8!E10)</f>
@@ -2491,11 +2491,11 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N10" s="7">
         <f>IF(INDEX(Tasks,5,3)&lt;&gt;"",100*M10/INDEX(Tasks,5,3),"")</f>
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="C11" s="17">
         <f>SUM(Student3!C11,Student1!C11,Student2!C11,Student4!C11,Student5!C11,Student6!C11,Student7!C11,Student8!C11)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D11" s="17">
         <f>SUM(Student3!D11,Student1!D11,Student2!D11,Student4!D11,Student5!D11,Student6!D11,Student7!D11,Student8!D11)</f>
-        <v>0.20833333333333334</v>
+        <v>0</v>
       </c>
       <c r="E11" s="17">
         <f>SUM(Student3!E11,Student1!E11,Student2!E11,Student4!E11,Student5!E11,Student6!E11,Student7!E11,Student8!E11)</f>
@@ -2545,25 +2545,25 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="N11" s="7">
         <f>IF(INDEX(Tasks,6,3)&lt;&gt;"",100*M11/INDEX(Tasks,6,3),"")</f>
-        <v>0.61124694376528121</v>
+        <v>0.36674816625916867</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17">
         <f>SUM(Student3!C12,Student1!C12,Student2!C12,Student4!C12,Student5!C12,Student6!C12,Student7!C12,Student8!C12)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
-        <v>0</v>
+        <v>0.48958333333333337</v>
       </c>
       <c r="E12" s="17">
         <f>SUM(Student3!E12,Student1!E12,Student2!E12,Student4!E12,Student5!E12,Student6!E12,Student7!E12,Student8!E12)</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -2609,7 +2609,7 @@
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17">
         <f>SUM(Student3!C13,Student1!C13,Student2!C13,Student4!C13,Student5!C13,Student6!C13,Student7!C13,Student8!C13)</f>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="D13" s="17">
         <f>SUM(Student3!D13,Student1!D13,Student2!D13,Student4!D13,Student5!D13,Student6!D13,Student7!D13,Student8!D13)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E13" s="17">
         <f>SUM(Student3!E13,Student1!E13,Student2!E13,Student4!E13,Student5!E13,Student6!E13,Student7!E13,Student8!E13)</f>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N13" s="7" t="str">
         <f>IF(INDEX(Tasks,8,3)&lt;&gt;"",100*M13/INDEX(Tasks,8,3),"")</f>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="C31" s="17">
         <f>Student1!C26</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D31" s="17">
         <f>Student1!D26</f>
-        <v>0</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E31" s="17">
         <f>Student1!E26</f>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="M31" s="27">
         <f t="shared" ref="M31:M39" si="1">SUM(C31:L31)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C32" s="17">
         <f>Student2!C26</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D32" s="17">
         <f>Student2!D26</f>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="M32" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3450,11 +3450,11 @@
       </c>
       <c r="C33" s="17">
         <f>Student3!C26</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D33" s="17">
         <f>Student3!D26</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E33" s="17">
         <f>Student3!E26</f>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M33" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3500,11 +3500,11 @@
       </c>
       <c r="C34" s="17">
         <f>Student4!C26</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D34" s="17">
         <f>Student4!D26</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.14791666666666667</v>
       </c>
       <c r="E34" s="17">
         <f>Student4!E26</f>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M34" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="D35" s="17">
         <f>Student5!D26</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E35" s="17">
         <f>Student5!E26</f>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M35" s="27">
         <f t="shared" si="1"/>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3600,11 +3600,11 @@
       </c>
       <c r="C36" s="17">
         <f>Student6!C26</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D36" s="17">
         <f>Student6!D26</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E36" s="17">
         <f>Student6!E26</f>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="M36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3746,11 +3746,11 @@
     <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="27">
         <f t="shared" ref="C39:L39" si="2">SUM(C31:C38)</f>
-        <v>0</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0.27708333333333335</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>0.27708333333333335</v>
+        <v>1.5645833333333332</v>
       </c>
     </row>
   </sheetData>
@@ -3803,8 +3803,8 @@
   </sheetPr>
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3878,7 +3878,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -3894,7 +3896,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -3941,7 +3945,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3957,7 +3963,9 @@
         <f>INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>0.125</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -3971,10 +3979,12 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -3987,7 +3997,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4195,11 +4205,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -4252,43 +4262,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>0.43958333333333333</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4297,43 +4307,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$5-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.625</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$5-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$5-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$5-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$5-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$5-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$5-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$5-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$5-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$5-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.3937499999999998</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4391,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4522,7 +4532,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4552,7 +4564,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -4568,7 +4580,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4776,7 +4788,7 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
@@ -4833,43 +4845,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -4878,43 +4890,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$6-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$6-D28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$6-E28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$6-F28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$6-G28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$6-H28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$6-I28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$6-J28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$6-K28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$6-L28</f>
-        <v>5.8104166666666668</v>
+        <v>5.7270833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4973,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5036,7 +5048,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -5052,7 +5066,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -5099,7 +5115,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -5129,10 +5147,12 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>0.25</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -5145,7 +5165,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5353,11 +5373,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>0.2729166666666667</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -5410,43 +5430,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>0.35625000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -5455,43 +5475,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$7-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$7-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$7-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$7-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$7-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$7-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$7-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$7-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$7-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$7-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.4770833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -5538,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5680,8 +5700,12 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.125</v>
+      </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -5710,9 +5734,11 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
-      </c>
-      <c r="C12" s="17"/>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.25</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -5726,7 +5752,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5934,11 +5960,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.14791666666666667</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -5991,43 +6017,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.48124999999999996</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -6036,43 +6062,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$8-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$8-D28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$8-E28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$8-F28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$8-G28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$8-H28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$8-I28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$8-J28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$8-K28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$8-L28</f>
-        <v>5.8104166666666668</v>
+        <v>5.3520833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -6118,8 +6144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6277,9 +6303,7 @@
         <v>Sprint Tasks</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="17">
-        <v>0.20833333333333334</v>
-      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -6292,7 +6316,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -6308,7 +6332,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -6520,7 +6544,7 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
@@ -6577,39 +6601,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0.23125000000000001</v>
+        <v>2.2916666666666669E-2</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -6622,39 +6646,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$9-D28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$9-E28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$9-F28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$9-G28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$9-H28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$9-I28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$9-J28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$9-K28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$9-L28</f>
-        <v>5.6020833333333329</v>
+        <v>5.8104166666666668</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -6701,7 +6725,7 @@
   <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6775,7 +6799,9 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="17">
+        <v>1.9444444444444445E-2</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -6791,7 +6817,9 @@
         <v>Daily Scrum</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -6838,7 +6866,9 @@
         <f>INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -6868,10 +6898,12 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>3.125E-2</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -6884,10 +6916,12 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -7092,11 +7126,11 @@
     <row r="26" spans="2:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="22">
         <f>SUM(C6:C25)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="22">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E26" s="22">
         <f t="shared" si="0"/>
@@ -7149,43 +7183,43 @@
       </c>
       <c r="C28" s="18">
         <f>SUM(C26)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>0</v>
+        <v>0.15833333333333333</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -7194,43 +7228,43 @@
       </c>
       <c r="C29" s="18">
         <f>Parameters!$G$10-C28</f>
-        <v>5.833333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$10-D28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$10-E28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$10-F28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$10-G28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$10-H28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$10-I28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$10-J28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$10-K28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$10-L28</f>
-        <v>5.833333333333333</v>
+        <v>5.6749999999999998</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7478,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7460,7 +7494,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7852,7 +7886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8020,7 +8054,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f>INDEX(Tasks,7,2)</f>
-        <v>Sprint Task 1.x: Develop Code part</v>
+        <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -8036,7 +8070,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 2.x: Develop Report part</v>
+        <v>Sprint Task 1.1: look into data retrieval</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>

--- a/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
+++ b/Group08 DBL-2 Scrum Timesheets 201900131.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_ondrikov_student_tue_nl/Documents/Q4/DBL HTI + Webtech (2IOA0)/Scrum/Week 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_petrov_student_tue_nl/Documents/DBLVis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCCE2B4-3AEB-476D-96C8-10181D2AB981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{91A33854-4384-4F7A-A732-0CA2FFBC4EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="6072" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
                   <c:v>0.48124999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2916666666666669E-2</c:v>
+                  <c:v>0.23125000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.15833333333333333</c:v>
@@ -805,7 +805,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="400337368"/>
@@ -889,7 +889,7 @@
                   <c:v>0.79166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7729166666666667</c:v>
+                  <c:v>0.98124999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1282,7 +1282,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73958333333333337</c:v>
+                  <c:v>0.94791666666666674</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -1373,7 +1373,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D12" s="17">
         <f>SUM(Student3!D12,Student1!D12,Student2!D12,Student4!D12,Student5!D12,Student6!D12,Student7!D12,Student8!D12)</f>
-        <v>0.48958333333333337</v>
+        <v>0.69791666666666674</v>
       </c>
       <c r="E12" s="17">
         <f>SUM(Student3!E12,Student1!E12,Student2!E12,Student4!E12,Student5!E12,Student6!E12,Student7!E12,Student8!E12)</f>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="M12" s="25">
         <f t="shared" si="0"/>
-        <v>0.73958333333333337</v>
+        <v>0.94791666666666674</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>IF(INDEX(Tasks,7,3)&lt;&gt;"",100*M12/INDEX(Tasks,7,3),"")</f>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="D35" s="17">
         <f>Student5!D26</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E35" s="17">
         <f>Student5!E26</f>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="M35" s="27">
         <f t="shared" si="1"/>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="D39" s="27">
         <f t="shared" si="2"/>
-        <v>0.7729166666666667</v>
+        <v>0.98124999999999996</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="2"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M39" s="27">
         <f t="shared" si="1"/>
-        <v>1.5645833333333332</v>
+        <v>1.7729166666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6144,8 +6144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6319,7 +6319,9 @@
         <v>Sprint Task 1.1: research javascript, libraries, etc.</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -6544,7 +6546,7 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" ref="D26:L26" si="0">SUM(D6:D25)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
@@ -6601,39 +6603,39 @@
       </c>
       <c r="D28" s="18">
         <f>SUM($C$26:D26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="E28" s="18">
         <f>SUM($C$26:E26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="F28" s="18">
         <f>SUM($C$26:F26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="G28" s="18">
         <f>SUM($C$26:G26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="H28" s="18">
         <f>SUM($C$26:H26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="I28" s="18">
         <f>SUM($C$26:I26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="J28" s="18">
         <f>SUM($C$26:J26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="K28" s="18">
         <f>SUM($C$26:K26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="L28" s="18">
         <f>SUM($C$26:L26)</f>
-        <v>2.2916666666666669E-2</v>
+        <v>0.23125000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
@@ -6646,39 +6648,39 @@
       </c>
       <c r="D29" s="18">
         <f>Parameters!$G$9-D28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="E29" s="18">
         <f>Parameters!$G$9-E28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="F29" s="18">
         <f>Parameters!$G$9-F28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="G29" s="18">
         <f>Parameters!$G$9-G28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="H29" s="18">
         <f>Parameters!$G$9-H28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="I29" s="18">
         <f>Parameters!$G$9-I28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="J29" s="18">
         <f>Parameters!$G$9-J28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="K29" s="18">
         <f>Parameters!$G$9-K28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
       <c r="L29" s="18">
         <f>Parameters!$G$9-L28</f>
-        <v>5.8104166666666668</v>
+        <v>5.6020833333333329</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
